--- a/medicine/Autisme/Éloge_du_voyage_à_l'usage_des_autistes_et_de_ceux_qui_ne_le_sont_pas_assez/Éloge_du_voyage_à_l'usage_des_autistes_et_de_ceux_qui_ne_le_sont_pas_assez.xlsx
+++ b/medicine/Autisme/Éloge_du_voyage_à_l'usage_des_autistes_et_de_ceux_qui_ne_le_sont_pas_assez/Éloge_du_voyage_à_l'usage_des_autistes_et_de_ceux_qui_ne_le_sont_pas_assez.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89loge_du_voyage_%C3%A0_l%27usage_des_autistes_et_de_ceux_qui_ne_le_sont_pas_assez</t>
+          <t>Éloge_du_voyage_à_l'usage_des_autistes_et_de_ceux_qui_ne_le_sont_pas_assez</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Éloge du voyage à l'usage des autistes et de ceux qui ne le sont pas assez est un essai autobiographique écrit par Josef Schovanec, paru le 20 mars 2014 aux éditions Plon. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89loge_du_voyage_%C3%A0_l%27usage_des_autistes_et_de_ceux_qui_ne_le_sont_pas_assez</t>
+          <t>Éloge_du_voyage_à_l'usage_des_autistes_et_de_ceux_qui_ne_le_sont_pas_assez</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Josef Schovanec raconte ses nombreux voyages[1] (Éthiopie, Ouzbékistan, Arménie, Iran, Taïwan...) et décrit cette expérience de son point de vue d'adulte autiste, expliquant que les personnes autistes peuvent « ailleurs, se sentir enfin comme les autres »[2] : 
-« Le voyage, mieux que nulle autre thérapie, rend obsolètes les traumatismes passés. Vous vous sentez moche ? Peut-être faites vous-même partie avec moi des gens peu favorisés par Dame Nature ? Peu importe. Ce qui passe ici pour un défaut pourra devenir une qualité ailleurs[3],[4]. »
-Il parle de « voyageothérapie », et ne limite pas la description des bienfaits du voyage aux gens autistes[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Josef Schovanec raconte ses nombreux voyages (Éthiopie, Ouzbékistan, Arménie, Iran, Taïwan...) et décrit cette expérience de son point de vue d'adulte autiste, expliquant que les personnes autistes peuvent « ailleurs, se sentir enfin comme les autres » : 
+« Le voyage, mieux que nulle autre thérapie, rend obsolètes les traumatismes passés. Vous vous sentez moche ? Peut-être faites vous-même partie avec moi des gens peu favorisés par Dame Nature ? Peu importe. Ce qui passe ici pour un défaut pourra devenir une qualité ailleurs,. »
+Il parle de « voyageothérapie », et ne limite pas la description des bienfaits du voyage aux gens autistes.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89loge_du_voyage_%C3%A0_l%27usage_des_autistes_et_de_ceux_qui_ne_le_sont_pas_assez</t>
+          <t>Éloge_du_voyage_à_l'usage_des_autistes_et_de_ceux_qui_ne_le_sont_pas_assez</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,12 @@
           <t>Réception</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En avril 2014, lors d'un entretien télévisé au Petit Journal de Yann Barthès pour la promotion de ce livre, il invite Ségolène Neuville, la secrétaire d'État chargée des Personnes handicapées, à passer du temps avec des personnes autistes pour mieux se sensibiliser à leur cause[6].
-Dans son blog sur Libération, Armand T., un père d'enfant autiste non-verbal, reproche à Josef Schovanec de desservir les autistes qui ne sont pas « Asperger » ou « de haut niveau » en entretenant l'idée selon laquelle chaque autiste est potentiellement capable de devenir docteur ou de voyager[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En avril 2014, lors d'un entretien télévisé au Petit Journal de Yann Barthès pour la promotion de ce livre, il invite Ségolène Neuville, la secrétaire d'État chargée des Personnes handicapées, à passer du temps avec des personnes autistes pour mieux se sensibiliser à leur cause.
+Dans son blog sur Libération, Armand T., un père d'enfant autiste non-verbal, reproche à Josef Schovanec de desservir les autistes qui ne sont pas « Asperger » ou « de haut niveau » en entretenant l'idée selon laquelle chaque autiste est potentiellement capable de devenir docteur ou de voyager.
 </t>
         </is>
       </c>
